--- a/analysis_output/F1_analysis.xlsx
+++ b/analysis_output/F1_analysis.xlsx
@@ -459,12 +459,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>F13.7</t>
+          <t>F16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Residual tilstand eller sent innsettende psykotisk lidelse som skyldes bruk av sedativum eller hypnotikum</t>
+          <t>Psykiske lidelser og atferdsforstyrrelser som skyldes bruk av hallusinogener</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -515,7 +515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Residual tilstand eller sent innsettende psykotisk lidelse som skyldes bruk av sedativum eller hypnotikum</t>
+          <t>Psykiske lidelser og atferdsforstyrrelser som skyldes bruk av hallusinogener</t>
         </is>
       </c>
     </row>
